--- a/TestData/OrderID.xlsx
+++ b/TestData/OrderID.xlsx
@@ -18,7 +18,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>PayAmount</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,24 +360,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1022.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>100.0</v>
+      <c r="B1" t="n">
+        <v>1.7128E7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>394000.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>30000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>543200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>123400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -384,7 +451,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>180000.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestData/OrderID.xlsx
+++ b/TestData/OrderID.xlsx
@@ -18,9 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PayAmount</t>
+  </si>
+  <si>
+    <t>58, C Block, Sector 63, Noida, Uttar Pradesh 201301, India</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="n">
-        <v>1.7128E7</v>
+        <v>8.98986E7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -380,42 +383,42 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100000.0</v>
+        <v>101000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14000.0</v>
+        <v>1189700.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100000.0</v>
+        <v>760000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>394000.0</v>
+        <v>3139400.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>40000.0</v>
+        <v>200100.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50000.0</v>
+        <v>90000.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>60000.0</v>
+      <c r="A9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30000.0</v>
+        <v>143200.0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,7 +457,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>180000.0</v>
+        <v>1088700.0</v>
       </c>
     </row>
   </sheetData>
